--- a/spec/support/files/2010_analyzed_free_text_terms.xlsx
+++ b/spec/support/files/2010_analyzed_free_text_terms.xlsx
@@ -19,114 +19,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="47">
   <si>
     <t>CONDITION</t>
   </si>
   <si>
+    <t>DERMATOLOGY</t>
+  </si>
+  <si>
+    <t>ENDOCRINOLOGY</t>
+  </si>
+  <si>
+    <t>GI_HEPATOLOGY</t>
+  </si>
+  <si>
+    <t>IMMUNO_RHEUMATOLOGY</t>
+  </si>
+  <si>
+    <t>INFECTIOUS_DISEASES</t>
+  </si>
+  <si>
+    <t>NEPHROLOGY</t>
+  </si>
+  <si>
+    <t>NEUROLOGY</t>
+  </si>
+  <si>
+    <t>PSYCH_GENERAL</t>
+  </si>
+  <si>
+    <t>PSYCH_SPECIFIC</t>
+  </si>
+  <si>
+    <t>ONCOLOGY_GENERAL</t>
+  </si>
+  <si>
+    <t>ONCOLOGY_SPECIFIC</t>
+  </si>
+  <si>
+    <t>OTOLARYNGOLOGY</t>
+  </si>
+  <si>
+    <t>PULMONARY_MEDICINE</t>
+  </si>
+  <si>
+    <t>REPRODUCTIVE_MEDICINE</t>
+  </si>
+  <si>
+    <t>PAD</t>
+  </si>
+  <si>
+    <t>PVD</t>
+  </si>
+  <si>
+    <t>BONE_GENERAL</t>
+  </si>
+  <si>
+    <t>BONE_SPECIFIC</t>
+  </si>
+  <si>
+    <t>DIABETES_GENERAL</t>
+  </si>
+  <si>
+    <t>DIABETES_SPECIFIC</t>
+  </si>
+  <si>
+    <t>THYROID_GENERAL</t>
+  </si>
+  <si>
+    <t>HEPATOLOGY_SPECIFIC</t>
+  </si>
+  <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Degenerative Disc Disease</t>
+  </si>
+  <si>
+    <t>Diabetes Type 2</t>
+  </si>
+  <si>
+    <t>Growth Hormone Deficiency</t>
+  </si>
+  <si>
+    <t>HIV-1 Infection</t>
+  </si>
+  <si>
+    <t>Peripheral Artery Disease</t>
+  </si>
+  <si>
+    <t>Recurrent Adult Diffuse Large Cell Lymphoma</t>
+  </si>
+  <si>
+    <t>Recurrent Grade 3 Follicular Lymphoma</t>
+  </si>
+  <si>
+    <t>Soft Tissue Sarcoma</t>
+  </si>
+  <si>
+    <t>Deep Vein Thrombosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CARDIOLOGY</t>
-  </si>
-  <si>
-    <t>DERMATOLOGY</t>
-  </si>
-  <si>
-    <t>ENDOCRINOLOGY</t>
-  </si>
-  <si>
-    <t>GI_HEPATOLOGY</t>
-  </si>
-  <si>
-    <t>IMMUNO_RHEUMATOLOGY</t>
-  </si>
-  <si>
-    <t>INFECTIOUS_DISEASES</t>
-  </si>
-  <si>
-    <t>NEPHROLOGY</t>
-  </si>
-  <si>
-    <t>NEUROLOGY</t>
-  </si>
-  <si>
-    <t>PSYCH_GENERAL</t>
-  </si>
-  <si>
-    <t>PSYCH_SPECIFIC</t>
-  </si>
-  <si>
-    <t>ONCOLOGY_GENERAL</t>
-  </si>
-  <si>
-    <t>ONCOLOGY_SPECIFIC</t>
-  </si>
-  <si>
-    <t>OTOLARYNGOLOGY</t>
-  </si>
-  <si>
-    <t>PULMONARY_MEDICINE</t>
-  </si>
-  <si>
-    <t>REPRODUCTIVE_MEDICINE</t>
-  </si>
-  <si>
-    <t>PAD</t>
-  </si>
-  <si>
-    <t>PVD</t>
-  </si>
-  <si>
-    <t>BONE_GENERAL</t>
-  </si>
-  <si>
-    <t>BONE_SPECIFIC</t>
-  </si>
-  <si>
-    <t>DIABETES_GENERAL</t>
-  </si>
-  <si>
-    <t>DIABETES_SPECIFIC</t>
-  </si>
-  <si>
-    <t>THYROID_GENERAL</t>
-  </si>
-  <si>
-    <t>HEPATOLOGY_SPECIFIC</t>
-  </si>
-  <si>
-    <t>Bleeding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chronic Obstructive Pulmonary Disease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Deep Vein Thrombosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Degenerative Disc Disease</t>
-  </si>
-  <si>
-    <t>Diabetes Type 2</t>
-  </si>
-  <si>
-    <t>Growth Hormone Deficiency</t>
-  </si>
-  <si>
-    <t>HIV-1 Infection</t>
-  </si>
-  <si>
-    <t>Peripheral Artery Disease</t>
-  </si>
-  <si>
-    <t>Recurrent Adult Diffuse Large Cell Lymphoma</t>
-  </si>
-  <si>
-    <t>Recurrent Grade 3 Follicular Lymphoma</t>
-  </si>
-  <si>
-    <t>Soft Tissue Sarcoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -139,7 +185,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -147,6 +193,11 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,10 +208,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -169,8 +246,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -513,817 +592,890 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="V5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X11" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
